--- a/story/Story Summarization 剧情简述/Main Story and Others 主线剧情等/Operator Record 干员密录/story_lava_2_1.xlsx
+++ b/story/Story Summarization 剧情简述/Main Story and Others 主线剧情等/Operator Record 干员密录/story_lava_2_1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>zh_CN</t>
   </si>
@@ -31,7 +31,11 @@
     <t>炎熔发现芙蓉病倒了，她为姐姐看护，然后闭眼歇息了一会。醒来之后，她突然发现，那只是个梦，自己才是生病的人。</t>
   </si>
   <si>
-    <t xml:space="preserve">炎熔发现芙蓉病倒了，她为姐姐看护，然后闭眼歇息了一会。醒来之后，她突然发现，那只是个梦，自己才是生病的人。
+    <t xml:space="preserve">ラヴァは、ハイビスカスが病気になったことを知る。姉の看病で疲れたラヴァは、目を閉じ一息ついた。目を覚ますと、それが夢だったことに気付く。病気になっていたのは、本当は自分の方だったのだ。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lava realizes Hibiscus is sick, and after caring for her sister, takes a moment to close her eyes and rest. When she wakes up, she finds out all of a sudden it was just a dream, and she's the one who's actually ill.
 </t>
   </si>
   <si>
@@ -422,10 +426,10 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
